--- a/biology/Médecine/Hôtel-Dieu_d'Étampes/Hôtel-Dieu_d'Étampes.xlsx
+++ b/biology/Médecine/Hôtel-Dieu_d'Étampes/Hôtel-Dieu_d'Étampes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27%C3%89tampes</t>
+          <t>Hôtel-Dieu_d'Étampes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hôtel-Dieu est un édifice situé à Étampes dans le département français de l'Essonne, en France[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôtel-Dieu est un édifice situé à Étampes dans le département français de l'Essonne, en France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27%C3%89tampes</t>
+          <t>Hôtel-Dieu_d'Étampes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument est situé au 37 rue de la République, Étampes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27%C3%89tampes</t>
+          <t>Hôtel-Dieu_d'Étampes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'édifice est daté des XVIIe siècle et XVIIIe siècle.
 Fermé depuis 1991, il fait l'objet d'une restauration au début des années 2010 visant à le transformer en logements. Les bâtiments au nord et à l'est ont été détruits pour laisser place à de nouveaux immeubles et deux allées piétonnes, le mail Gabriel Gautron et l'allée de la Collégiale (privée, fermée au public). Les bâtiments jouxtant la rue Baugin, désormais visibles de la Collégiale Notre-Dame-du-Fort d'Étampes, sont en revanche conservés et transformés en logements.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4tel-Dieu_d%27%C3%89tampes</t>
+          <t>Hôtel-Dieu_d'Étampes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,6 +601,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
